--- a/MS Excel Namrata (1) (2).xlsx
+++ b/MS Excel Namrata (1) (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="297">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform mathematical calculations on statistical data and totaling long columns of numbers or determining percentage and averages
 </t>
@@ -922,6 +922,93 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>GJ-004</t>
+  </si>
+  <si>
+    <t>GJ-005</t>
+  </si>
+  <si>
+    <t>GJ-006</t>
+  </si>
+  <si>
+    <t>GJ-007</t>
+  </si>
+  <si>
+    <t>GJ-008</t>
+  </si>
+  <si>
+    <t>GJ-009</t>
+  </si>
+  <si>
+    <t>GJ-0010</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>tulasha</t>
+  </si>
+  <si>
+    <t>rasna</t>
+  </si>
+  <si>
+    <t>jeena</t>
+  </si>
+  <si>
+    <t>shanti</t>
+  </si>
+  <si>
+    <t>sashika</t>
+  </si>
+  <si>
+    <t>laxmi</t>
+  </si>
+  <si>
+    <t>chettri</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>karki</t>
+  </si>
+  <si>
+    <t>limboo</t>
+  </si>
+  <si>
+    <t>regmi</t>
+  </si>
+  <si>
+    <t>rai</t>
+  </si>
+  <si>
+    <t>haruki murakami</t>
+  </si>
+  <si>
+    <t>no name</t>
+  </si>
+  <si>
+    <t>nam chettri</t>
+  </si>
+  <si>
+    <t>tulasha sharma</t>
+  </si>
+  <si>
+    <t>rasna karki</t>
+  </si>
+  <si>
+    <t>jeena limboo</t>
+  </si>
+  <si>
+    <t>shanti regmi</t>
+  </si>
+  <si>
+    <t>sashika rai</t>
+  </si>
+  <si>
+    <t>laxmi chettri</t>
   </si>
 </sst>
 </file>
@@ -1208,6 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1412,7 +1500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1521,24 +1608,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65941888"/>
-        <c:axId val="65943424"/>
+        <c:axId val="69804800"/>
+        <c:axId val="69806336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65941888"/>
+        <c:axId val="69804800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65943424"/>
+        <c:crossAx val="69806336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65943424"/>
+        <c:axId val="69806336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1633,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65941888"/>
+        <c:crossAx val="69804800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1558,7 +1645,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2925,299 +3012,299 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="H8" s="40" t="s">
+      <c r="D8" s="41"/>
+      <c r="H8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="38" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="4:13">
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="4:13">
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" spans="4:13">
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="38" t="s">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="4:13">
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
     </row>
     <row r="30" spans="4:13">
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
     </row>
     <row r="31" spans="4:13">
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
     </row>
     <row r="32" spans="4:13">
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3246,39 +3333,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="78">
         <f>COUNTIF(B5:B14,"apples")</f>
         <v>2</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -3299,65 +3386,65 @@
       <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
@@ -3387,30 +3474,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="K4" s="58" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="K4" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
     </row>
     <row r="5" spans="1:18">
       <c r="E5" t="s">
@@ -3422,16 +3509,16 @@
       <c r="G5" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
     </row>
     <row r="6" spans="1:18">
       <c r="E6" t="s">
@@ -3443,14 +3530,14 @@
       <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
     </row>
     <row r="7" spans="1:18">
       <c r="E7" t="s">
@@ -3462,14 +3549,14 @@
       <c r="G7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
     </row>
     <row r="8" spans="1:18">
       <c r="E8" t="s">
@@ -3481,14 +3568,14 @@
       <c r="G8" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
     </row>
     <row r="9" spans="1:18">
       <c r="E9" t="s">
@@ -3500,73 +3587,73 @@
       <c r="G9" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="46"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="41" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="33">
         <f>SUMIF(F5:F9,"&lt;100")</f>
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
       <c r="I13" s="34">
         <f>SUMIF(G5:G9,"computer",F5:F9)</f>
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="34">
         <f>COUNTIF(F5:F9,"&gt;35")</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="34">
         <f>AVERAGEIF(F5:F9,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -3605,13 +3692,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="12" t="s">
@@ -3629,16 +3716,16 @@
         <f>VLOOKUP(A4,A9:D14,3,0)</f>
         <v>7865987789</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -3648,16 +3735,16 @@
         <f>VLOOKUP(A5,A9:D14,4,0)</f>
         <v>deorali</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -3667,14 +3754,14 @@
         <f>VLOOKUP(A6,A9:D14,2,0)</f>
         <v>eg@gmail.com</v>
       </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -3684,40 +3771,40 @@
         <f>VLOOKUP(A7,A9:D14,4,0)</f>
         <v>vajra</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
@@ -3732,14 +3819,14 @@
       <c r="D10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
@@ -3830,123 +3917,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3975,30 +4062,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="12" t="s">
@@ -4042,106 +4129,106 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="L21" s="86" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="L21" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4162,7 +4249,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4171,35 +4258,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="L3" s="93" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="L3" s="94" t="s">
         <v>181</v>
       </c>
       <c r="M3" t="s">
@@ -4210,16 +4297,16 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="L4" s="94"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="L4" s="95"/>
       <c r="M4" t="s">
         <v>184</v>
       </c>
@@ -4228,16 +4315,16 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="L5" s="94"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="L5" s="95"/>
       <c r="M5" t="s">
         <v>185</v>
       </c>
@@ -4246,26 +4333,26 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="L7" s="16" t="s">
         <v>182</v>
       </c>
@@ -4278,70 +4365,70 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="L9" s="86" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="L9" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="86"/>
+      <c r="M9" s="87"/>
       <c r="N9" s="23">
         <f>N7*30*12</f>
         <v>-11595347.057062184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4374,13 +4461,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="H2" s="16" t="s">
@@ -4388,12 +4475,12 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="H3" s="20" t="s">
         <v>201</v>
       </c>
@@ -4404,14 +4491,14 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="60"/>
+      <c r="E5" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="H5" s="20" t="s">
         <v>203</v>
       </c>
@@ -4423,10 +4510,10 @@
       <c r="C6" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="42"/>
       <c r="H6" s="20" t="s">
         <v>204</v>
       </c>
@@ -4541,149 +4628,149 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
     </row>
     <row r="15" spans="1:21">
       <c r="B15" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4773,88 +4860,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8">
       <c r="E12" s="25" t="s">
@@ -4944,319 +5031,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="2:14">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" s="1"/>
@@ -5282,53 +5369,53 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="F13" s="100" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="F13" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5343,18 +5430,18 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
@@ -5365,128 +5452,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" t="s">
         <v>247</v>
       </c>
@@ -5571,7 +5658,7 @@
         <f>SUM(F8:M8)</f>
         <v>550</v>
       </c>
-      <c r="O8" s="103">
+      <c r="O8" s="35">
         <f>N8/800</f>
         <v>0.6875</v>
       </c>
@@ -5594,6 +5681,13 @@
       <c r="C9" t="s">
         <v>135</v>
       </c>
+      <c r="D9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" t="str">
+        <f>UPPER(D9)</f>
+        <v>HARUKI MURAKAMI</v>
+      </c>
       <c r="F9">
         <v>90</v>
       </c>
@@ -5622,9 +5716,13 @@
         <f>SUM(F9:M9)</f>
         <v>452</v>
       </c>
-      <c r="O9" s="103">
-        <f>N9/100</f>
-        <v>4.5199999999999996</v>
+      <c r="O9" s="35">
+        <f>N9/800</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P9" t="str">
+        <f>IF(O9&lt;40%,"E",IF(O9&lt;50%,"B",IF(O9&lt;60%,"A")))</f>
+        <v>A</v>
       </c>
       <c r="Q9" t="str">
         <f>IF(O9&lt;=50%,"FAIL","PASS")</f>
@@ -5641,6 +5739,13 @@
       <c r="C10" t="s">
         <v>267</v>
       </c>
+      <c r="D10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" t="str">
+        <f>UPPER(D10)</f>
+        <v>NO NAME</v>
+      </c>
       <c r="F10">
         <v>67</v>
       </c>
@@ -5669,9 +5774,375 @@
         <f>SUM(F10:M10)</f>
         <v>323</v>
       </c>
-      <c r="O10" s="103">
+      <c r="O10" s="35">
         <f>N10/800</f>
         <v>0.40375</v>
+      </c>
+      <c r="P10" t="str">
+        <f>IF(O10&lt;40%,"E",IF(O10&lt;50%,"B"))</f>
+        <v>B</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF(O10&lt;=50%,"FAIL","PASS")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" t="str">
+        <f>UPPER(D11)</f>
+        <v>NAM CHETTRI</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>57</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>55</v>
+      </c>
+      <c r="K11">
+        <v>56</v>
+      </c>
+      <c r="L11">
+        <v>88</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <f>SUM(F11:M11)</f>
+        <v>522</v>
+      </c>
+      <c r="O11" s="35">
+        <f>N11/800</f>
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(11&lt;40%,"E",IF(O11&lt;50%,"C",IF(O11&lt;70%,"B")))</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" t="str">
+        <f>UPPER(D12)</f>
+        <v>TULASHA SHARMA</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>89</v>
+      </c>
+      <c r="H12">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>76</v>
+      </c>
+      <c r="L12">
+        <v>55</v>
+      </c>
+      <c r="M12">
+        <v>35</v>
+      </c>
+      <c r="N12">
+        <f>SUM(F12:M12)</f>
+        <v>459</v>
+      </c>
+      <c r="O12" s="35">
+        <f>N12/800</f>
+        <v>0.57374999999999998</v>
+      </c>
+      <c r="P12" t="str">
+        <f>IF(O12&lt;40%,"E",IF(O12&lt;50%,"D",IF(O12&lt;60%,"C")))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" t="str">
+        <f>UPPER(D13)</f>
+        <v>RASNA KARKI</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>98</v>
+      </c>
+      <c r="J13">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>66</v>
+      </c>
+      <c r="L13">
+        <v>77</v>
+      </c>
+      <c r="M13">
+        <v>98</v>
+      </c>
+      <c r="N13">
+        <f>SUM(F13:M13)</f>
+        <v>554</v>
+      </c>
+      <c r="O13" s="35">
+        <f>N13/800</f>
+        <v>0.6925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" t="str">
+        <f>UPPER(D14)</f>
+        <v>JEENA LIMBOO</v>
+      </c>
+      <c r="F14">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <v>87</v>
+      </c>
+      <c r="J14">
+        <v>77</v>
+      </c>
+      <c r="K14">
+        <v>45</v>
+      </c>
+      <c r="L14">
+        <v>87</v>
+      </c>
+      <c r="M14">
+        <v>96</v>
+      </c>
+      <c r="N14">
+        <f>SUM(F14:M14)</f>
+        <v>605</v>
+      </c>
+      <c r="O14" s="35">
+        <f>N14/800</f>
+        <v>0.75624999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" t="str">
+        <f>UPPER(D15)</f>
+        <v>SHANTI REGMI</v>
+      </c>
+      <c r="F15">
+        <v>76</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>85</v>
+      </c>
+      <c r="J15">
+        <v>88</v>
+      </c>
+      <c r="K15">
+        <v>54</v>
+      </c>
+      <c r="L15">
+        <v>64</v>
+      </c>
+      <c r="M15">
+        <v>57</v>
+      </c>
+      <c r="N15">
+        <f>SUM(F15:M15)</f>
+        <v>564</v>
+      </c>
+      <c r="O15" s="35">
+        <f>N15/800</f>
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" t="str">
+        <f>UPPER(D16)</f>
+        <v>SASHIKA RAI</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>62</v>
+      </c>
+      <c r="H16">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>84</v>
+      </c>
+      <c r="N16">
+        <f>SUM(F16:M16)</f>
+        <v>483</v>
+      </c>
+      <c r="O16" s="35">
+        <f>N16/800</f>
+        <v>0.60375000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" t="str">
+        <f>UPPER(D17)</f>
+        <v>LAXMI CHETTRI</v>
+      </c>
+      <c r="F17">
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <v>43</v>
+      </c>
+      <c r="H17">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>56</v>
+      </c>
+      <c r="L17">
+        <v>78</v>
+      </c>
+      <c r="M17">
+        <v>29</v>
+      </c>
+      <c r="N17">
+        <f>SUM(F17:M17)</f>
+        <v>465</v>
+      </c>
+      <c r="O17" s="35">
+        <f>N17/800</f>
+        <v>0.58125000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -5700,69 +6171,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="43"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="43"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="K5">
         <v>123456789</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="42">
         <v>-123456789</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4">
@@ -5772,13 +6243,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -5789,7 +6260,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -5813,7 +6284,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -5837,7 +6308,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -5846,7 +6317,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -5873,13 +6344,13 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
       <c r="H13">
         <v>6</v>
       </c>
@@ -5897,13 +6368,13 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="17" spans="1:10">
       <c r="H17" t="s">
@@ -5917,16 +6388,16 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="H18" t="s">
         <v>34</v>
       </c>
@@ -5938,12 +6409,12 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="43"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="H19" t="s">
         <v>36</v>
       </c>
@@ -5955,12 +6426,12 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="43"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -5983,11 +6454,11 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -6166,24 +6637,24 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6220,23 +6691,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -6270,44 +6741,44 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6336,116 +6807,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="H3" s="60" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="H3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
@@ -6464,13 +6935,13 @@
         <f t="array" ref="F9">LEN(E9)</f>
         <v>13</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
@@ -6586,17 +7057,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
@@ -6613,7 +7084,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="63"/>
+      <c r="A4" s="64"/>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
@@ -6629,7 +7100,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="63"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
@@ -6649,7 +7120,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
@@ -6665,7 +7136,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
@@ -6681,7 +7152,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="5" t="s">
         <v>72</v>
       </c>
@@ -6693,7 +7164,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="63"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="5" t="s">
         <v>76</v>
       </c>
@@ -6708,86 +7179,86 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6815,14 +7286,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -6895,72 +7366,72 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6991,87 +7462,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="14">
         <f ca="1">TODAY()</f>
-        <v>44706</v>
-      </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+        <v>44707</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="C8" s="43"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="15">
         <f ca="1">NOW()</f>
-        <v>44706.248057291668</v>
-      </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
+        <v>44707.237815856482</v>
+      </c>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="14">
@@ -7081,15 +7552,15 @@
         <f>DAY(C10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14">
         <v>43892</v>
       </c>
@@ -7099,7 +7570,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14">
         <v>43831</v>
       </c>
@@ -7135,14 +7606,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
@@ -7162,18 +7633,18 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="72" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="6">
         <f>SUM(C4:C8)</f>
         <v>94</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
@@ -7182,14 +7653,14 @@
       <c r="C5">
         <v>23</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="73"/>
       <c r="I5" s="6">
         <f>MIN(C4:C8)</f>
         <v>23</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
@@ -7198,24 +7669,24 @@
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
       <c r="I6" s="6">
         <f>MAX(C4:C8)</f>
         <v>25</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="G7" s="72"/>
+      <c r="G7" s="73"/>
       <c r="I7" s="6">
         <f>AVERAGE(C4:C8)</f>
         <v>23.5</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
@@ -7224,187 +7695,187 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="73"/>
       <c r="I8" s="6">
         <f>COUNT(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:12">
       <c r="C9">
         <v>35</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="73"/>
       <c r="I9" s="6">
         <f>COUNTA(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10">
         <v>34</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="I10" s="6">
         <f>COUNTBLANK(C4:C8)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:12">
       <c r="C11">
         <v>27</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="73"/>
       <c r="I11" s="6">
         <f>SMALL(C4:C8,3)</f>
         <v>23</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="G12" s="72"/>
+      <c r="G12" s="73"/>
       <c r="I12" s="6">
         <f>LARGE(C4:C15,1)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/MS Excel Namrata (1) (2).xlsx
+++ b/MS Excel Namrata (1) (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="Sheet19" sheetId="21" r:id="rId19"/>
     <sheet name="Sheet20" sheetId="22" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="23" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="313">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform mathematical calculations on statistical data and totaling long columns of numbers or determining percentage and averages
 </t>
@@ -1010,12 +1011,62 @@
   <si>
     <t>laxmi chettri</t>
   </si>
+  <si>
+    <t>EMPLOYEE PAYROLL SYSTEM - 20 emp</t>
+  </si>
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>JOINING DATE</t>
+  </si>
+  <si>
+    <t>SALARY REVISION DATE AFTER SIX MONTHS</t>
+  </si>
+  <si>
+    <t>NO OF WORKING DAYS FOR SIX MONTHS</t>
+  </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>[ DEDUCTION OF RS 500 PER DAY IF ABSENT] - [ SALARY REVISION AFTER SIX MONTHS]</t>
+  </si>
+  <si>
+    <t>SALARY DATE</t>
+  </si>
+  <si>
+    <t>WORKING DAYS FOR THIS MONTHS</t>
+  </si>
+  <si>
+    <t>MONTH - I ( till sixth months)</t>
+  </si>
+  <si>
+    <t>TOTAL ATTENDANCE</t>
+  </si>
+  <si>
+    <t>ATTENDANCE</t>
+  </si>
+  <si>
+    <t>SALARY TO BE PAID</t>
+  </si>
+  <si>
+    <t>SALARY REVISION if total attendance is more than or equal to
+ 70 then add rs 10000 to the salary if not then salary ramains the same</t>
+  </si>
+  <si>
+    <t>IF SALARY REVISED THEN SALARY REVISED HAS TO SHOW 
+ ELSE DIDN'T REVISE HAS TO SHOW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,8 +1102,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1203,6 +1270,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1221,7 +1312,7 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1499,6 +1590,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1608,24 +1732,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69804800"/>
-        <c:axId val="69806336"/>
+        <c:axId val="68195072"/>
+        <c:axId val="68196608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69804800"/>
+        <c:axId val="68195072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69806336"/>
+        <c:crossAx val="68196608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69806336"/>
+        <c:axId val="68196608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1757,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69804800"/>
+        <c:crossAx val="68195072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1645,7 +1769,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5432,8 +5556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5655,11 +5779,11 @@
         <v>90</v>
       </c>
       <c r="N8">
-        <f>SUM(F8:M8)</f>
+        <f t="shared" ref="N8:N17" si="0">SUM(F8:M8)</f>
         <v>550</v>
       </c>
       <c r="O8" s="35">
-        <f>N8/800</f>
+        <f t="shared" ref="O8:O17" si="1">N8/800</f>
         <v>0.6875</v>
       </c>
       <c r="P8" t="str">
@@ -5685,7 +5809,7 @@
         <v>288</v>
       </c>
       <c r="E9" t="str">
-        <f>UPPER(D9)</f>
+        <f t="shared" ref="E9:E17" si="2">UPPER(D9)</f>
         <v>HARUKI MURAKAMI</v>
       </c>
       <c r="F9">
@@ -5713,11 +5837,11 @@
         <v>66</v>
       </c>
       <c r="N9">
-        <f>SUM(F9:M9)</f>
+        <f t="shared" si="0"/>
         <v>452</v>
       </c>
       <c r="O9" s="35">
-        <f>N9/800</f>
+        <f t="shared" si="1"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="P9" t="str">
@@ -5743,7 +5867,7 @@
         <v>289</v>
       </c>
       <c r="E10" t="str">
-        <f>UPPER(D10)</f>
+        <f t="shared" si="2"/>
         <v>NO NAME</v>
       </c>
       <c r="F10">
@@ -5771,11 +5895,11 @@
         <v>35</v>
       </c>
       <c r="N10">
-        <f>SUM(F10:M10)</f>
+        <f t="shared" si="0"/>
         <v>323</v>
       </c>
       <c r="O10" s="35">
-        <f>N10/800</f>
+        <f t="shared" si="1"/>
         <v>0.40375</v>
       </c>
       <c r="P10" t="str">
@@ -5801,7 +5925,7 @@
         <v>290</v>
       </c>
       <c r="E11" t="str">
-        <f>UPPER(D11)</f>
+        <f t="shared" si="2"/>
         <v>NAM CHETTRI</v>
       </c>
       <c r="F11">
@@ -5829,17 +5953,21 @@
         <v>66</v>
       </c>
       <c r="N11">
-        <f>SUM(F11:M11)</f>
+        <f t="shared" si="0"/>
         <v>522</v>
       </c>
       <c r="O11" s="35">
-        <f>N11/800</f>
+        <f t="shared" si="1"/>
         <v>0.65249999999999997</v>
       </c>
       <c r="P11" t="str">
         <f>IF(11&lt;40%,"E",IF(O11&lt;50%,"C",IF(O11&lt;70%,"B")))</f>
         <v>B</v>
       </c>
+      <c r="Q11" t="str">
+        <f>IF(O11&lt;=50%,"FAIL","PASS")</f>
+        <v>PASS</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
@@ -5855,7 +5983,7 @@
         <v>291</v>
       </c>
       <c r="E12" t="str">
-        <f>UPPER(D12)</f>
+        <f t="shared" si="2"/>
         <v>TULASHA SHARMA</v>
       </c>
       <c r="F12">
@@ -5883,17 +6011,21 @@
         <v>35</v>
       </c>
       <c r="N12">
-        <f>SUM(F12:M12)</f>
+        <f t="shared" si="0"/>
         <v>459</v>
       </c>
       <c r="O12" s="35">
-        <f>N12/800</f>
+        <f t="shared" si="1"/>
         <v>0.57374999999999998</v>
       </c>
       <c r="P12" t="str">
         <f>IF(O12&lt;40%,"E",IF(O12&lt;50%,"D",IF(O12&lt;60%,"C")))</f>
         <v>C</v>
       </c>
+      <c r="Q12" t="str">
+        <f>IF(O12&lt;=50%,"FAIL","PASS")</f>
+        <v>PASS</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
@@ -5909,7 +6041,7 @@
         <v>292</v>
       </c>
       <c r="E13" t="str">
-        <f>UPPER(D13)</f>
+        <f t="shared" si="2"/>
         <v>RASNA KARKI</v>
       </c>
       <c r="F13">
@@ -5937,12 +6069,16 @@
         <v>98</v>
       </c>
       <c r="N13">
-        <f>SUM(F13:M13)</f>
+        <f t="shared" si="0"/>
         <v>554</v>
       </c>
       <c r="O13" s="35">
-        <f>N13/800</f>
+        <f t="shared" si="1"/>
         <v>0.6925</v>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(O13&lt;40%,"E",IF(O13&lt;50%,"D",IF(O13&lt;70%,"B")))</f>
+        <v>B</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5959,7 +6095,7 @@
         <v>293</v>
       </c>
       <c r="E14" t="str">
-        <f>UPPER(D14)</f>
+        <f t="shared" si="2"/>
         <v>JEENA LIMBOO</v>
       </c>
       <c r="F14">
@@ -5987,11 +6123,11 @@
         <v>96</v>
       </c>
       <c r="N14">
-        <f>SUM(F14:M14)</f>
+        <f t="shared" si="0"/>
         <v>605</v>
       </c>
       <c r="O14" s="35">
-        <f>N14/800</f>
+        <f t="shared" si="1"/>
         <v>0.75624999999999998</v>
       </c>
     </row>
@@ -6009,7 +6145,7 @@
         <v>294</v>
       </c>
       <c r="E15" t="str">
-        <f>UPPER(D15)</f>
+        <f t="shared" si="2"/>
         <v>SHANTI REGMI</v>
       </c>
       <c r="F15">
@@ -6037,11 +6173,11 @@
         <v>57</v>
       </c>
       <c r="N15">
-        <f>SUM(F15:M15)</f>
+        <f t="shared" si="0"/>
         <v>564</v>
       </c>
       <c r="O15" s="35">
-        <f>N15/800</f>
+        <f t="shared" si="1"/>
         <v>0.70499999999999996</v>
       </c>
     </row>
@@ -6059,7 +6195,7 @@
         <v>295</v>
       </c>
       <c r="E16" t="str">
-        <f>UPPER(D16)</f>
+        <f t="shared" si="2"/>
         <v>SASHIKA RAI</v>
       </c>
       <c r="F16">
@@ -6087,11 +6223,11 @@
         <v>84</v>
       </c>
       <c r="N16">
-        <f>SUM(F16:M16)</f>
+        <f t="shared" si="0"/>
         <v>483</v>
       </c>
       <c r="O16" s="35">
-        <f>N16/800</f>
+        <f t="shared" si="1"/>
         <v>0.60375000000000001</v>
       </c>
     </row>
@@ -6109,7 +6245,7 @@
         <v>296</v>
       </c>
       <c r="E17" t="str">
-        <f>UPPER(D17)</f>
+        <f t="shared" si="2"/>
         <v>LAXMI CHETTRI</v>
       </c>
       <c r="F17">
@@ -6137,11 +6273,11 @@
         <v>29</v>
       </c>
       <c r="N17">
-        <f>SUM(F17:M17)</f>
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
       <c r="O17" s="35">
-        <f>N17/800</f>
+        <f t="shared" si="1"/>
         <v>0.58125000000000004</v>
       </c>
     </row>
@@ -6153,6 +6289,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="38.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="14" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="28.5">
+      <c r="A1" s="12"/>
+      <c r="B1" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="105" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="107" t="s">
+        <v>305</v>
+      </c>
+      <c r="I4" s="107" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="108" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="N4" s="111" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="112"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="J6" s="106" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="114" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="113"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="112"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="J7" s="106"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F2:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7511,7 +7821,7 @@
       </c>
       <c r="D7" s="14">
         <f ca="1">TODAY()</f>
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71"/>
@@ -7524,7 +7834,7 @@
       <c r="C8" s="44"/>
       <c r="D8" s="15">
         <f ca="1">NOW()</f>
-        <v>44707.237815856482</v>
+        <v>44708.766018865739</v>
       </c>
       <c r="G8" s="71"/>
       <c r="H8" s="71"/>
